--- a/tables/OSM_model_selection_summary.xlsx
+++ b/tables/OSM_model_selection_summary.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,152 +385,536 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>AICw</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>m_nat_compXconfig_2</t>
+          <t>m_edgeXcfi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>lc_coniferous + lc_grassland + lc_mixed + lc_shrub + harvest + wells + nonveg_anthro_ed + veg_anthro_ed + harvest * veg_anthro_ed</t>
+          <t xml:space="preserve"> CORE + Edge Density + CFI + Edge Density × CFI</t>
         </is>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>2550.033106347425</v>
+        <v>9394.441704446106</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9944981127632588</v>
+        <v>0.5684853508885704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>m_nat_comp_config</t>
+          <t>m_seis_wells</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lc_coniferous + lc_grassland + lc_mixed + lc_shrub + harvest + wells + nonveg_anthro_ed + veg_anthro_ed</t>
+          <t xml:space="preserve"> CORE + Pipelines &amp; Transmission Lines + Seismic Lines + Inactive Well Sites</t>
         </is>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>2560.427416341468</v>
+        <v>9397.027749291328</v>
       </c>
       <c r="E3">
-        <v>10.3943099940434</v>
+        <v>2.586044845222204</v>
       </c>
       <c r="F3">
-        <v>0.005501843421328313</v>
+        <v>0.1560151506744061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>m_nat_config</t>
+          <t>m_harvest_seis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lc_coniferous + lc_grassland + lc_mixed + lc_shrub + nonveg_anthro_ed + veg_anthro_ed</t>
+          <t xml:space="preserve"> CORE + Harvest &lt;15 + Pipelines &amp; Transmission Lines + Seismic Lines + Inactive Well Sites</t>
         </is>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>2583.908632569788</v>
+        <v>9398.563567429392</v>
       </c>
       <c r="E4">
-        <v>33.87552622236353</v>
+        <v>4.12186298328561</v>
       </c>
       <c r="F4">
-        <v>4.381541286600077E-08</v>
+        <v>0.07238825432930002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>m_nat_comp</t>
+          <t>m_edge_cfi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lc_coniferous + lc_grassland + lc_mixed + lc_shrub + harvest + pipe_trans + seismic + wells</t>
+          <t xml:space="preserve"> CORE + Edge Density + CFI</t>
         </is>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>2644.625752178307</v>
+        <v>9399.347838149459</v>
       </c>
       <c r="E5">
-        <v>94.5926458308827</v>
+        <v>4.90613370335268</v>
       </c>
       <c r="F5">
-        <v>2.864652235615406E-21</v>
+        <v>0.04890642082991227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>m_nat</t>
+          <t>m_edge_conn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>lc_coniferous + lc_grassland + lc_mixed + lc_shrub</t>
+          <t xml:space="preserve"> CORE + Mesh Index + Edge Density</t>
         </is>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>2710.430239162145</v>
+        <v>9399.790061797639</v>
       </c>
       <c r="E6">
-        <v>160.3971328147204</v>
+        <v>5.348357351533195</v>
       </c>
       <c r="F6">
-        <v>1.471665524182436E-35</v>
+        <v>0.03920470907657694</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>m_active_seis</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Industrial Facilities + Active Well Sites + Pipelines &amp; Transmission Lines + Seismic Lines + Inactive Well Sites</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>9399.805973570035</v>
+      </c>
+      <c r="E7">
+        <v>5.364269123929262</v>
+      </c>
+      <c r="F7">
+        <v>0.03889403834192775</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>m_config</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Mesh Index + Shannon's Evenness + Edge Density</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>9400.869158687767</v>
+      </c>
+      <c r="E8">
+        <v>6.427454241660598</v>
+      </c>
+      <c r="F8">
+        <v>0.02285679446765499</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>m_active_seis_harvest</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Industrial Facilities + Active Well Sites + Harvest &lt;15 + Pipelines &amp; Transmission Lines + Seismic Lines + Inactive Well Sites</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>9401.297459704056</v>
+      </c>
+      <c r="E9">
+        <v>6.855755257949568</v>
+      </c>
+      <c r="F9">
+        <v>0.01845061892284927</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>m_het_edge</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Shannon's Evenness + Edge Density</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>9402.067696037266</v>
+      </c>
+      <c r="E10">
+        <v>7.625991591159618</v>
+      </c>
+      <c r="F10">
+        <v>0.01255325192161343</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>m_edge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Edge Density</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9402.241763745162</v>
+      </c>
+      <c r="E11">
+        <v>7.800059299055647</v>
+      </c>
+      <c r="F11">
+        <v>0.01150688895204146</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>m_conn</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Mesh Index</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>9405.298730465094</v>
+      </c>
+      <c r="E12">
+        <v>10.85702601898811</v>
+      </c>
+      <c r="F12">
+        <v>0.002495433684044164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>m_forest_fire</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fire &lt;15 + Broadleaf + Coniferous + Mixedwood</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>9405.710535507811</v>
+      </c>
+      <c r="E13">
+        <v>11.26883106170499</v>
+      </c>
+      <c r="F13">
+        <v>0.002031064447499589</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>m_het</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Shannon's Evenness</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>9406.584571128788</v>
+      </c>
+      <c r="E14">
+        <v>12.14286668268142</v>
+      </c>
+      <c r="F14">
+        <v>0.001311986241114963</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>m_harvest</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Harvest &lt;15</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>9406.800334225903</v>
+      </c>
+      <c r="E15">
+        <v>12.35862977979741</v>
+      </c>
+      <c r="F15">
+        <v>0.001177814561732592</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>m_het_conn</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Mesh Index + Shannon's Evenness</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>9406.892689976838</v>
+      </c>
+      <c r="E16">
+        <v>12.45098553073149</v>
+      </c>
+      <c r="F16">
+        <v>0.001124662262515653</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>m_active</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Industrial Facilities + Active Well Sites</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>9407.020694019891</v>
+      </c>
+      <c r="E17">
+        <v>12.57898957378529</v>
+      </c>
+      <c r="F17">
+        <v>0.001054936692438164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>m_active_harvest</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Industrial Facilities + Active Well Sites + Harvest &lt;15</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>9407.775261372442</v>
+      </c>
+      <c r="E18">
+        <v>13.33355692633631</v>
+      </c>
+      <c r="F18">
+        <v>0.0007233927958027265</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>m_forest</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Broadleaf + Coniferous + Mixedwood</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>9408.663152963798</v>
+      </c>
+      <c r="E19">
+        <v>14.2214485176919</v>
+      </c>
+      <c r="F19">
+        <v>0.0004640566173757466</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>m_landcover_fire</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Shrubland + Wetland + Treed Wetland</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>9409.882900426319</v>
+      </c>
+      <c r="E20">
+        <v>15.4411959802128</v>
+      </c>
+      <c r="F20">
+        <v>0.000252177406463894</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>m_landcover</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Broadleaf + Coniferous + Mixedwood + Shrubland + Wetland + Treed Wetland</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>9411.737176243465</v>
+      </c>
+      <c r="E21">
+        <v>17.29547179735891</v>
+      </c>
+      <c r="F21">
+        <v>9.978271033324553E-05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>m_fire</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fire &lt;15</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>9418.763947003295</v>
+      </c>
+      <c r="E22">
+        <v>24.32224255718938</v>
+      </c>
+      <c r="F22">
+        <v>2.973112979785748E-06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>m_null</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2759.182572675928</v>
-      </c>
-      <c r="E7">
-        <v>209.1494663285039</v>
-      </c>
-      <c r="F7">
-        <v>3.813944803932344E-46</v>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>9423.788561302037</v>
+      </c>
+      <c r="E23">
+        <v>29.34685685593104</v>
+      </c>
+      <c r="F23">
+        <v>2.410628468609505E-07</v>
       </c>
     </row>
   </sheetData>

--- a/tables/OSM_model_selection_summary.xlsx
+++ b/tables/OSM_model_selection_summary.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +397,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CORE + Edge Density + CFI + Edge Density × CFI</t>
+          <t xml:space="preserve"> CORE + Edge Density + Site Disturbance + Edge Density × CFI</t>
         </is>
       </c>
       <c r="C2">
@@ -410,7 +410,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5684853508885704</v>
+        <v>0.5591326860500432</v>
       </c>
     </row>
     <row r="3">
@@ -434,7 +434,7 @@
         <v>2.586044845222204</v>
       </c>
       <c r="F3">
-        <v>0.1560151506744061</v>
+        <v>0.1534484048264976</v>
       </c>
     </row>
     <row r="4">
@@ -458,7 +458,7 @@
         <v>4.12186298328561</v>
       </c>
       <c r="F4">
-        <v>0.07238825432930002</v>
+        <v>0.07119732991949808</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CORE + Edge Density + CFI</t>
+          <t xml:space="preserve"> CORE + Edge Density + Site Disturbance</t>
         </is>
       </c>
       <c r="C5">
@@ -482,7 +482,7 @@
         <v>4.90613370335268</v>
       </c>
       <c r="F5">
-        <v>0.04890642082991227</v>
+        <v>0.04810181722533532</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +506,7 @@
         <v>5.348357351533195</v>
       </c>
       <c r="F6">
-        <v>0.03920470907657694</v>
+        <v>0.03855971707544258</v>
       </c>
     </row>
     <row r="7">
@@ -530,7 +530,7 @@
         <v>5.364269123929262</v>
       </c>
       <c r="F7">
-        <v>0.03889403834192775</v>
+        <v>0.03825415746503215</v>
       </c>
     </row>
     <row r="8">
@@ -554,7 +554,7 @@
         <v>6.427454241660598</v>
       </c>
       <c r="F8">
-        <v>0.02285679446765499</v>
+        <v>0.02248075674283948</v>
       </c>
     </row>
     <row r="9">
@@ -578,7 +578,7 @@
         <v>6.855755257949568</v>
       </c>
       <c r="F9">
-        <v>0.01845061892284927</v>
+        <v>0.01814707116286025</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +602,7 @@
         <v>7.625991591159618</v>
       </c>
       <c r="F10">
-        <v>0.01255325192161343</v>
+        <v>0.012346727060994</v>
       </c>
     </row>
     <row r="11">
@@ -626,295 +626,367 @@
         <v>7.800059299055647</v>
       </c>
       <c r="F11">
-        <v>0.01150688895204146</v>
+        <v>0.01131757875163897</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>m_conn</t>
+          <t>m_cohesion_mesh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CORE + Mesh Index</t>
+          <t xml:space="preserve"> CORE + Cohesion + Mesh Index</t>
         </is>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>9405.298730465094</v>
+        <v>9402.879131843134</v>
       </c>
       <c r="E12">
-        <v>10.85702601898811</v>
+        <v>8.437427397027932</v>
       </c>
       <c r="F12">
-        <v>0.002495433684044164</v>
+        <v>0.008229070844501321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>m_forest_fire</t>
+          <t>m_cohesion</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fire &lt;15 + Broadleaf + Coniferous + Mixedwood</t>
+          <t xml:space="preserve"> CORE + Cohesion</t>
         </is>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>9405.710535507811</v>
+        <v>9404.173150058636</v>
       </c>
       <c r="E13">
-        <v>11.26883106170499</v>
+        <v>9.731445612529569</v>
       </c>
       <c r="F13">
-        <v>0.002031064447499589</v>
+        <v>0.004308819643376749</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>m_het</t>
+          <t>m_cohesion_shei</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CORE + Shannon's Evenness</t>
+          <t xml:space="preserve"> CORE + Cohesion + Shannon's Evenness</t>
         </is>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>9406.584571128788</v>
+        <v>9404.365352840032</v>
       </c>
       <c r="E14">
-        <v>12.14286668268142</v>
+        <v>9.92364839392576</v>
       </c>
       <c r="F14">
-        <v>0.001311986241114963</v>
+        <v>0.003914010733338327</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>m_harvest</t>
+          <t>m_conn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CORE + Harvest &lt;15</t>
+          <t xml:space="preserve"> CORE + Mesh Index</t>
         </is>
       </c>
       <c r="C15">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>9406.800334225903</v>
+        <v>9405.298730465094</v>
       </c>
       <c r="E15">
-        <v>12.35862977979741</v>
+        <v>10.85702601898811</v>
       </c>
       <c r="F15">
-        <v>0.001177814561732592</v>
+        <v>0.002454379055570173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>m_het_conn</t>
+          <t>m_forest_fire</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CORE + Mesh Index + Shannon's Evenness</t>
+          <t xml:space="preserve"> Fire &lt;15 + Broadleaf + Coniferous + Mixedwood</t>
         </is>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>9406.892689976838</v>
+        <v>9405.710535507811</v>
       </c>
       <c r="E16">
-        <v>12.45098553073149</v>
+        <v>11.26883106170499</v>
       </c>
       <c r="F16">
-        <v>0.001124662262515653</v>
+        <v>0.001997649575835401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>m_active</t>
+          <t>m_het</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CORE + Industrial Facilities + Active Well Sites</t>
+          <t xml:space="preserve"> CORE + Shannon's Evenness</t>
         </is>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>9407.020694019891</v>
+        <v>9406.584571128788</v>
       </c>
       <c r="E17">
-        <v>12.57898957378529</v>
+        <v>12.14286668268142</v>
       </c>
       <c r="F17">
-        <v>0.001054936692438164</v>
+        <v>0.001290401573072544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>m_active_harvest</t>
+          <t>m_harvest</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CORE + Industrial Facilities + Active Well Sites + Harvest &lt;15</t>
+          <t xml:space="preserve"> CORE + Harvest &lt;15</t>
         </is>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>9407.775261372442</v>
+        <v>9406.800334225903</v>
       </c>
       <c r="E18">
-        <v>13.33355692633631</v>
+        <v>12.35862977979741</v>
       </c>
       <c r="F18">
-        <v>0.0007233927958027265</v>
+        <v>0.001158437272906057</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>m_forest</t>
+          <t>m_het_conn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Broadleaf + Coniferous + Mixedwood</t>
+          <t xml:space="preserve"> CORE + Mesh Index + Shannon's Evenness</t>
         </is>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>9408.663152963798</v>
+        <v>9406.892689976838</v>
       </c>
       <c r="E19">
-        <v>14.2214485176919</v>
+        <v>12.45098553073149</v>
       </c>
       <c r="F19">
-        <v>0.0004640566173757466</v>
+        <v>0.001106159430065516</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>m_landcover_fire</t>
+          <t>m_active</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CORE + Shrubland + Wetland + Treed Wetland</t>
+          <t xml:space="preserve"> CORE + Industrial Facilities + Active Well Sites</t>
         </is>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>9409.882900426319</v>
+        <v>9407.020694019891</v>
       </c>
       <c r="E20">
-        <v>15.4411959802128</v>
+        <v>12.57898957378529</v>
       </c>
       <c r="F20">
-        <v>0.000252177406463894</v>
+        <v>0.001037580978179535</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>m_landcover</t>
+          <t>m_active_harvest</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Broadleaf + Coniferous + Mixedwood + Shrubland + Wetland + Treed Wetland</t>
+          <t xml:space="preserve"> CORE + Industrial Facilities + Active Well Sites + Harvest &lt;15</t>
         </is>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>9411.737176243465</v>
+        <v>9407.775261372442</v>
       </c>
       <c r="E21">
-        <v>17.29547179735891</v>
+        <v>13.33355692633631</v>
       </c>
       <c r="F21">
-        <v>9.978271033324553E-05</v>
+        <v>0.0007114916089820404</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>m_fire</t>
+          <t>m_forest</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fire &lt;15</t>
+          <t xml:space="preserve"> Broadleaf + Coniferous + Mixedwood</t>
         </is>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>9418.763947003295</v>
+        <v>9408.663152963798</v>
       </c>
       <c r="E22">
-        <v>24.32224255718938</v>
+        <v>14.2214485176919</v>
       </c>
       <c r="F22">
-        <v>2.973112979785748E-06</v>
+        <v>0.000456422003745629</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>m_landcover_fire</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE + Shrubland + Wetland + Treed Wetland</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>9409.882900426319</v>
+      </c>
+      <c r="E23">
+        <v>15.4411959802128</v>
+      </c>
+      <c r="F23">
+        <v>0.0002480286086825275</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>m_landcover</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Broadleaf + Coniferous + Mixedwood + Shrubland + Wetland + Treed Wetland</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>9411.737176243465</v>
+      </c>
+      <c r="E24">
+        <v>17.29547179735891</v>
+      </c>
+      <c r="F24">
+        <v>9.814109503925772E-05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>m_fire</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fire &lt;15</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>9418.763947003295</v>
+      </c>
+      <c r="E25">
+        <v>24.32224255718938</v>
+      </c>
+      <c r="F25">
+        <v>2.924199618722796E-06</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>m_null</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="D23">
+      <c r="D26">
         <v>9423.788561302037</v>
       </c>
-      <c r="E23">
+      <c r="E26">
         <v>29.34685685593104</v>
       </c>
-      <c r="F23">
-        <v>2.410628468609505E-07</v>
+      <c r="F26">
+        <v>2.37096904716289E-07</v>
       </c>
     </row>
   </sheetData>
